--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.89259911976085</v>
+        <v>8.397454463076008</v>
       </c>
       <c r="C2" t="n">
-        <v>44.42102944452097</v>
+        <v>28.46891972479787</v>
       </c>
       <c r="D2" t="n">
-        <v>56.87625641538347</v>
+        <v>36.55222813644092</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.02990163816197</v>
+        <v>10.26246696525275</v>
       </c>
       <c r="C3" t="n">
-        <v>57.4036783967338</v>
+        <v>35.36459581244753</v>
       </c>
       <c r="D3" t="n">
-        <v>73.72048298258895</v>
+        <v>45.93849542654244</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.35634766603105</v>
+        <v>8.217184897100912</v>
       </c>
       <c r="C4" t="n">
-        <v>42.71112125614529</v>
+        <v>27.82965699081589</v>
       </c>
       <c r="D4" t="n">
-        <v>55.094186673815</v>
+        <v>36.05497008749695</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.26949113493504</v>
+        <v>8.626241185751066</v>
       </c>
       <c r="C5" t="n">
-        <v>45.99782679794934</v>
+        <v>29.54622873376688</v>
       </c>
       <c r="D5" t="n">
-        <v>58.33388952662737</v>
+        <v>37.16904927300527</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.49901092519566</v>
+        <v>8.204286840888127</v>
       </c>
       <c r="C6" t="n">
-        <v>46.81570978562808</v>
+        <v>28.04984638475174</v>
       </c>
       <c r="D6" t="n">
-        <v>59.31336146748001</v>
+        <v>35.05975630106953</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.20713035237652</v>
+        <v>9.399103046053657</v>
       </c>
       <c r="C7" t="n">
-        <v>52.15142504545391</v>
+        <v>32.26910023163559</v>
       </c>
       <c r="D7" t="n">
-        <v>64.9828406578679</v>
+        <v>41.78789528381307</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.02794433433064</v>
+        <v>10.23887105888044</v>
       </c>
       <c r="C8" t="n">
-        <v>57.41738198695181</v>
+        <v>35.28072597246074</v>
       </c>
       <c r="D8" t="n">
-        <v>73.72143027539549</v>
+        <v>45.83673068130128</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.19155902666042</v>
+        <v>10.37749808209266</v>
       </c>
       <c r="C9" t="n">
-        <v>57.92233211448094</v>
+        <v>35.79411448110011</v>
       </c>
       <c r="D9" t="n">
-        <v>74.05172160599417</v>
+        <v>46.2907868367859</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.429020817439765</v>
+        <v>1.425862136944517</v>
       </c>
       <c r="C10" t="n">
-        <v>5.58734078204631</v>
+        <v>6.568163973402837</v>
       </c>
       <c r="D10" t="n">
-        <v>7.329064449498087</v>
+        <v>7.283074480543644</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.53813658593026</v>
+        <v>17.20173021304702</v>
       </c>
       <c r="C11" t="n">
-        <v>80.65093115209756</v>
+        <v>58.63036763946259</v>
       </c>
       <c r="D11" t="n">
-        <v>83.48798846007337</v>
+        <v>63.06426473210124</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.71583474196096</v>
+        <v>17.39011346967043</v>
       </c>
       <c r="C12" t="n">
-        <v>81.2009488250695</v>
+        <v>59.27849048363097</v>
       </c>
       <c r="D12" t="n">
-        <v>83.89045190082817</v>
+        <v>63.8192983381075</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.30438370750067</v>
+        <v>16.83269991575694</v>
       </c>
       <c r="C13" t="n">
-        <v>79.84218082132375</v>
+        <v>57.18857038649489</v>
       </c>
       <c r="D13" t="n">
-        <v>82.72179837341859</v>
+        <v>62.2267901316688</v>
       </c>
     </row>
   </sheetData>
